--- a/biology/Zoologie/Hemirhagerrhis_hildebrandtii/Hemirhagerrhis_hildebrandtii.xlsx
+++ b/biology/Zoologie/Hemirhagerrhis_hildebrandtii/Hemirhagerrhis_hildebrandtii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemirhagerrhis hildebrandtii est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemirhagerrhis hildebrandtii est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Soudan ;
 au Soudan du Sud ;
 en Éthiopie ;
@@ -547,9 +561,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Johann Maria Hildebrandt[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Johann Maria Hildebrandt.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1878 : Über die von Hrn. J. M. Hildebrandt während seiner letzten ostafrikanischen Reise gesammelten Säugethiere und Amphibien. Monatsberichte der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1878, p. 194–209 (texte intégral).</t>
         </is>
